--- a/Python/OUTTZTJBB.xlsx
+++ b/Python/OUTTZTJBB.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="52">
   <si>
     <t>/html/body/div[1]/div[2]/div/div/div/form/div[2]/div[1]/div/div[4]/div[1]/input</t>
   </si>
@@ -32,9 +32,6 @@
   </si>
   <si>
     <t>*仅可以使用英文字母,数字, 下划线和减号, 字数范围4-30</t>
-  </si>
-  <si>
-    <t>仅可以使用英文字母,数字, 下划线和减号, 字数范围4-30</t>
   </si>
   <si>
     <t>打</t>
@@ -551,7 +548,7 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D2" t="s"/>
     </row>
@@ -563,49 +560,49 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D3" t="s"/>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D4" t="s"/>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D5" t="s"/>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D6" t="s"/>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s"/>
       <c r="C7" t="s"/>
@@ -613,7 +610,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s"/>
       <c r="C8" t="s"/>
@@ -621,19 +618,19 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" t="s">
         <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D9" t="s"/>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10" t="s"/>
       <c r="C10" t="s"/>
@@ -641,7 +638,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11" t="s"/>
       <c r="C11" t="s"/>
@@ -649,43 +646,43 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12" t="s">
         <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D12" t="s"/>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13" t="s">
         <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D13" t="s"/>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B14" t="s">
         <v>5</v>
       </c>
       <c r="C14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D14" t="s"/>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B15" t="s"/>
       <c r="C15" t="s"/>
@@ -693,7 +690,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B16" t="s"/>
       <c r="C16" t="s"/>
@@ -701,7 +698,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B17" t="s"/>
       <c r="C17" t="s"/>
@@ -709,385 +706,385 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B18" t="s">
         <v>5</v>
       </c>
       <c r="C18" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D18" t="s"/>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B19" t="s">
         <v>5</v>
       </c>
       <c r="C19" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D19" t="s"/>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B20" t="s">
         <v>5</v>
       </c>
       <c r="C20" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D20" t="s"/>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
         <v>5</v>
       </c>
       <c r="C21" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D21" t="s"/>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B22" t="s">
         <v>5</v>
       </c>
       <c r="C22" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D22" t="s"/>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B23" t="s">
         <v>5</v>
       </c>
       <c r="C23" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D23" t="s"/>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B24" t="s">
         <v>5</v>
       </c>
       <c r="C24" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D24" t="s"/>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B25" t="s">
         <v>5</v>
       </c>
       <c r="C25" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D25" t="s"/>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B26" t="s">
         <v>5</v>
       </c>
       <c r="C26" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D26" t="s"/>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B27" t="s">
         <v>5</v>
       </c>
       <c r="C27" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D27" t="s"/>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B28" t="s">
         <v>5</v>
       </c>
       <c r="C28" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D28" t="s"/>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B29" t="s">
         <v>5</v>
       </c>
       <c r="C29" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D29" t="s"/>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B30" t="s">
         <v>5</v>
       </c>
       <c r="C30" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D30" t="s"/>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B31" t="s">
         <v>5</v>
       </c>
       <c r="C31" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D31" t="s"/>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B32" t="s">
         <v>5</v>
       </c>
       <c r="C32" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D32" t="s"/>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B33" t="s">
         <v>5</v>
       </c>
       <c r="C33" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D33" t="s"/>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B34" t="s">
         <v>5</v>
       </c>
       <c r="C34" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D34" t="s"/>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B35" t="s">
         <v>5</v>
       </c>
       <c r="C35" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D35" t="s"/>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B36" t="s">
         <v>5</v>
       </c>
       <c r="C36" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D36" t="s"/>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B37" t="s">
         <v>5</v>
       </c>
       <c r="C37" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D37" t="s"/>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B38" t="s">
         <v>5</v>
       </c>
       <c r="C38" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D38" t="s"/>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B39" t="s">
         <v>5</v>
       </c>
       <c r="C39" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D39" t="s"/>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B40" t="s">
         <v>5</v>
       </c>
       <c r="C40" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D40" t="s"/>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B41" t="s">
         <v>5</v>
       </c>
       <c r="C41" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D41" t="s"/>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B42" t="s">
         <v>5</v>
       </c>
       <c r="C42" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D42" t="s"/>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B43" t="s">
         <v>5</v>
       </c>
       <c r="C43" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D43" t="s"/>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B44" t="s">
         <v>5</v>
       </c>
       <c r="C44" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D44" t="s"/>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B45" t="s">
         <v>5</v>
       </c>
       <c r="C45" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D45" t="s"/>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B46" t="s">
         <v>5</v>
       </c>
       <c r="C46" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D46" t="s"/>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B47" t="s">
         <v>5</v>
       </c>
       <c r="C47" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D47" t="s"/>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B48" t="s">
         <v>5</v>
       </c>
       <c r="C48" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D48" t="s"/>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B49" t="s">
         <v>5</v>
       </c>
       <c r="C49" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D49" t="s"/>
     </row>
